--- a/other group responses/IS6713_Project_Annotations_amcs.xlsx
+++ b/other group responses/IS6713_Project_Annotations_amcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwagw\Documents\Homework\Spring2025\Data Foundations\Final Project\Other Groups\IS6713_Project_Annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff38a78f238bb354/Documents/Git_Repositories/IS6713/other group responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A2523-4451-4DD4-BE44-0D3FB29DE162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2E7A2523-4451-4DD4-BE44-0D3FB29DE162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{211A1A0B-8BDF-4865-B72E-F443B837281E}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-3024" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="945" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations_50" sheetId="1" r:id="rId1"/>
@@ -4541,6 +4541,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4831,26 +4835,26 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B37:B39"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="255.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -4870,7 +4874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4974,7 +4978,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4988,7 +4992,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5002,7 +5006,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5030,7 +5034,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5268,7 +5272,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5296,7 +5300,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5310,7 +5314,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5352,7 +5356,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5422,7 +5426,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -5534,7 +5538,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -5596,27 +5600,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1269E18F-744C-47CC-A55D-61D01706AC8A}">
   <dimension ref="A1:R952"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D330" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>51</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>52</v>
       </c>
@@ -5658,7 +5662,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>53</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>54</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>55</v>
       </c>
@@ -5682,7 +5686,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>56</v>
       </c>
@@ -5690,7 +5694,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>57</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>58</v>
       </c>
@@ -5706,7 +5710,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>59</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>60</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>61</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>62</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>63</v>
       </c>
@@ -5746,7 +5750,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>64</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>65</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>66</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>67</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>68</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>69</v>
       </c>
@@ -5794,7 +5798,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>70</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>71</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>72</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>73</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>74</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>75</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>76</v>
       </c>
@@ -5850,7 +5854,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>77</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>78</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>79</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>80</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>81</v>
       </c>
@@ -5890,7 +5894,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>82</v>
       </c>
@@ -5898,7 +5902,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>83</v>
       </c>
@@ -5906,7 +5910,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>84</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>85</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>86</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>87</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>88</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>89</v>
       </c>
@@ -5954,7 +5958,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>90</v>
       </c>
@@ -5962,7 +5966,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>91</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>92</v>
       </c>
@@ -5978,7 +5982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>93</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>94</v>
       </c>
@@ -5994,7 +5998,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>95</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>96</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>97</v>
       </c>
@@ -6018,7 +6022,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>98</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>99</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>100</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>101</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>102</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>103</v>
       </c>
@@ -6066,7 +6070,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>104</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>105</v>
       </c>
@@ -6082,7 +6086,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>106</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>107</v>
       </c>
@@ -6098,7 +6102,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>108</v>
       </c>
@@ -6106,7 +6110,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>109</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>110</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>111</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>112</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>113</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>114</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>115</v>
       </c>
@@ -6162,7 +6166,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>116</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>117</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>118</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>119</v>
       </c>
@@ -6194,7 +6198,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>120</v>
       </c>
@@ -6202,7 +6206,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>121</v>
       </c>
@@ -6210,7 +6214,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>122</v>
       </c>
@@ -6218,7 +6222,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>123</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>124</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>125</v>
       </c>
@@ -6242,7 +6246,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>126</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>127</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>128</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>129</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>130</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>131</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>132</v>
       </c>
@@ -6298,7 +6302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>133</v>
       </c>
@@ -6306,7 +6310,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>134</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>135</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>136</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>137</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>138</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>139</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>140</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>141</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>142</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>143</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>144</v>
       </c>
@@ -6394,7 +6398,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>145</v>
       </c>
@@ -6402,7 +6406,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>146</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>147</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>148</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>149</v>
       </c>
@@ -6434,7 +6438,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>150</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>151</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>152</v>
       </c>
@@ -6458,7 +6462,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>153</v>
       </c>
@@ -6466,7 +6470,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>154</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>155</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>156</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>157</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>158</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>159</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>160</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>161</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>162</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>163</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>164</v>
       </c>
@@ -6554,7 +6558,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>165</v>
       </c>
@@ -6562,7 +6566,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>166</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>167</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>168</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>169</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>170</v>
       </c>
@@ -6602,7 +6606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>171</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>172</v>
       </c>
@@ -6618,7 +6622,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>173</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>174</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>175</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>176</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>177</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>178</v>
       </c>
@@ -6666,7 +6670,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>179</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>180</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>181</v>
       </c>
@@ -6690,7 +6694,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>182</v>
       </c>
@@ -6698,7 +6702,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>183</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>184</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>185</v>
       </c>
@@ -6722,7 +6726,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>186</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>187</v>
       </c>
@@ -6738,7 +6742,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>188</v>
       </c>
@@ -6746,7 +6750,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>189</v>
       </c>
@@ -6754,7 +6758,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>190</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>191</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>192</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>193</v>
       </c>
@@ -6786,7 +6790,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>194</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>195</v>
       </c>
@@ -6802,7 +6806,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>196</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>197</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>198</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>199</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>200</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>201</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>202</v>
       </c>
@@ -6858,7 +6862,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>203</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>204</v>
       </c>
@@ -6874,7 +6878,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>205</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>206</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>207</v>
       </c>
@@ -6898,7 +6902,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>208</v>
       </c>
@@ -6906,7 +6910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>209</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>210</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>211</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>212</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>213</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>214</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>215</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>216</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>217</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>218</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>219</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>220</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>221</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>222</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>223</v>
       </c>
@@ -7026,7 +7030,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>224</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>225</v>
       </c>
@@ -7042,7 +7046,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>226</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>227</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>228</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>229</v>
       </c>
@@ -7074,7 +7078,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>230</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>231</v>
       </c>
@@ -7090,7 +7094,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>232</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>233</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>234</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>235</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>236</v>
       </c>
@@ -7130,7 +7134,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>237</v>
       </c>
@@ -7138,7 +7142,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>238</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>239</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>240</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>241</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>242</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>243</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>244</v>
       </c>
@@ -7194,7 +7198,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>245</v>
       </c>
@@ -7202,7 +7206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>246</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>247</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>248</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>249</v>
       </c>
@@ -7234,7 +7238,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>250</v>
       </c>
@@ -7242,7 +7246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>251</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>252</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>253</v>
       </c>
@@ -7266,7 +7270,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>254</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>255</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>256</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>257</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>258</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>259</v>
       </c>
@@ -7314,7 +7318,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>260</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>261</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>262</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>263</v>
       </c>
@@ -7346,7 +7350,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>264</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>265</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>266</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>267</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>268</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>269</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>270</v>
       </c>
@@ -7402,7 +7406,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>271</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>272</v>
       </c>
@@ -7418,7 +7422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>273</v>
       </c>
@@ -7426,7 +7430,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>274</v>
       </c>
@@ -7434,7 +7438,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>275</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>276</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>277</v>
       </c>
@@ -7458,7 +7462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>278</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>279</v>
       </c>
@@ -7474,7 +7478,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>280</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>281</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>282</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>283</v>
       </c>
@@ -7506,7 +7510,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>284</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>285</v>
       </c>
@@ -7522,7 +7526,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>286</v>
       </c>
@@ -7530,7 +7534,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>287</v>
       </c>
@@ -7538,7 +7542,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>288</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>289</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>290</v>
       </c>
@@ -7562,7 +7566,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>291</v>
       </c>
@@ -7570,7 +7574,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>292</v>
       </c>
@@ -7578,7 +7582,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>293</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>294</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>295</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>296</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>297</v>
       </c>
@@ -7618,7 +7622,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>298</v>
       </c>
@@ -7626,7 +7630,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>299</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>300</v>
       </c>
@@ -7642,7 +7646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>301</v>
       </c>
@@ -7650,7 +7654,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>302</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>303</v>
       </c>
@@ -7666,7 +7670,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>304</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>305</v>
       </c>
@@ -7682,7 +7686,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>306</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>307</v>
       </c>
@@ -7698,7 +7702,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>308</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>309</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>310</v>
       </c>
@@ -7722,7 +7726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>311</v>
       </c>
@@ -7730,7 +7734,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>312</v>
       </c>
@@ -7738,7 +7742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>313</v>
       </c>
@@ -7746,7 +7750,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>314</v>
       </c>
@@ -7754,7 +7758,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>315</v>
       </c>
@@ -7762,7 +7766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>316</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>317</v>
       </c>
@@ -7778,7 +7782,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>318</v>
       </c>
@@ -7786,7 +7790,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>319</v>
       </c>
@@ -7794,7 +7798,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>320</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>321</v>
       </c>
@@ -7810,7 +7814,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>322</v>
       </c>
@@ -7818,7 +7822,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>323</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>324</v>
       </c>
@@ -7834,7 +7838,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>325</v>
       </c>
@@ -7842,7 +7846,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>326</v>
       </c>
@@ -7850,7 +7854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>327</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>328</v>
       </c>
@@ -7866,7 +7870,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>329</v>
       </c>
@@ -7874,7 +7878,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>330</v>
       </c>
@@ -7882,7 +7886,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>331</v>
       </c>
@@ -7890,7 +7894,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>332</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>333</v>
       </c>
@@ -7906,7 +7910,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>334</v>
       </c>
@@ -7914,7 +7918,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>335</v>
       </c>
@@ -7922,7 +7926,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>336</v>
       </c>
@@ -7930,7 +7934,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>337</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>338</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>339</v>
       </c>
@@ -7954,7 +7958,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>340</v>
       </c>
@@ -7962,7 +7966,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>341</v>
       </c>
@@ -7970,7 +7974,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>342</v>
       </c>
@@ -7978,7 +7982,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>343</v>
       </c>
@@ -7986,7 +7990,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>344</v>
       </c>
@@ -7994,7 +7998,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>345</v>
       </c>
@@ -8002,7 +8006,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>346</v>
       </c>
@@ -8010,7 +8014,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>347</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>348</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>349</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>350</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>351</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>352</v>
       </c>
@@ -8058,7 +8062,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>353</v>
       </c>
@@ -8066,7 +8070,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>354</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>355</v>
       </c>
@@ -8082,7 +8086,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>356</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>357</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>358</v>
       </c>
@@ -8106,7 +8110,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>359</v>
       </c>
@@ -8114,7 +8118,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>360</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>361</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>362</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>363</v>
       </c>
@@ -8146,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>364</v>
       </c>
@@ -8154,7 +8158,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>365</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>366</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>367</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>368</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>369</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>370</v>
       </c>
@@ -8202,7 +8206,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>371</v>
       </c>
@@ -8210,7 +8214,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>372</v>
       </c>
@@ -8218,7 +8222,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>373</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>374</v>
       </c>
@@ -8234,7 +8238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>375</v>
       </c>
@@ -8242,7 +8246,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>376</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>377</v>
       </c>
@@ -8258,7 +8262,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>378</v>
       </c>
@@ -8266,7 +8270,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>379</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>380</v>
       </c>
@@ -8282,7 +8286,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>381</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>382</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>383</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>384</v>
       </c>
@@ -8314,7 +8318,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>385</v>
       </c>
@@ -8322,7 +8326,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>386</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>387</v>
       </c>
@@ -8338,7 +8342,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>388</v>
       </c>
@@ -8346,7 +8350,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>389</v>
       </c>
@@ -8354,7 +8358,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>390</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>391</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>392</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>393</v>
       </c>
@@ -8386,7 +8390,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>394</v>
       </c>
@@ -8394,7 +8398,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>395</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>396</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>397</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>398</v>
       </c>
@@ -8426,7 +8430,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>399</v>
       </c>
@@ -8434,7 +8438,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>400</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>401</v>
       </c>
@@ -8450,7 +8454,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>402</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>403</v>
       </c>
@@ -8466,7 +8470,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>404</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>405</v>
       </c>
@@ -8482,7 +8486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>406</v>
       </c>
@@ -8490,7 +8494,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>407</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>408</v>
       </c>
@@ -8506,7 +8510,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>409</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>410</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>411</v>
       </c>
@@ -8530,7 +8534,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>412</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>413</v>
       </c>
@@ -8546,7 +8550,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>414</v>
       </c>
@@ -8554,7 +8558,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>415</v>
       </c>
@@ -8562,7 +8566,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>416</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>417</v>
       </c>
@@ -8578,7 +8582,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>418</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>419</v>
       </c>
@@ -8594,7 +8598,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>420</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>421</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>422</v>
       </c>
@@ -8618,7 +8622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>423</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>424</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>425</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>426</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>427</v>
       </c>
@@ -8658,7 +8662,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>428</v>
       </c>
@@ -8666,7 +8670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>429</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>430</v>
       </c>
@@ -8682,7 +8686,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>431</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>432</v>
       </c>
@@ -8698,7 +8702,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>433</v>
       </c>
@@ -8706,7 +8710,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>434</v>
       </c>
@@ -8714,7 +8718,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>435</v>
       </c>
@@ -8722,7 +8726,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>436</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>437</v>
       </c>
@@ -8738,7 +8742,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>438</v>
       </c>
@@ -8746,7 +8750,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>439</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>440</v>
       </c>
@@ -8762,7 +8766,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>441</v>
       </c>
@@ -8770,7 +8774,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>442</v>
       </c>
@@ -8778,7 +8782,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>443</v>
       </c>
@@ -8786,7 +8790,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>444</v>
       </c>
@@ -8794,7 +8798,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>445</v>
       </c>
@@ -8802,7 +8806,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>446</v>
       </c>
@@ -8810,7 +8814,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>447</v>
       </c>
@@ -8818,7 +8822,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>448</v>
       </c>
@@ -8826,7 +8830,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>449</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>450</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>451</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>452</v>
       </c>
@@ -8858,7 +8862,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>453</v>
       </c>
@@ -8866,7 +8870,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>454</v>
       </c>
@@ -8874,7 +8878,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>455</v>
       </c>
@@ -8882,7 +8886,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>456</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>457</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>458</v>
       </c>
@@ -8906,7 +8910,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>459</v>
       </c>
@@ -8914,7 +8918,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>460</v>
       </c>
@@ -8922,7 +8926,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>461</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>462</v>
       </c>
@@ -8938,7 +8942,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>463</v>
       </c>
@@ -8946,7 +8950,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>464</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>465</v>
       </c>
@@ -8962,7 +8966,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>466</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>467</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>468</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>469</v>
       </c>
@@ -8994,7 +8998,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>470</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>471</v>
       </c>
@@ -9010,7 +9014,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>472</v>
       </c>
@@ -9018,7 +9022,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>473</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>474</v>
       </c>
@@ -9034,7 +9038,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>475</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>476</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>477</v>
       </c>
@@ -9058,7 +9062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>478</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>479</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>480</v>
       </c>
@@ -9082,7 +9086,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>481</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>482</v>
       </c>
@@ -9098,7 +9102,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>483</v>
       </c>
@@ -9106,7 +9110,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>484</v>
       </c>
@@ -9114,7 +9118,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>485</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>486</v>
       </c>
@@ -9130,7 +9134,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>487</v>
       </c>
@@ -9138,7 +9142,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>488</v>
       </c>
@@ -9146,7 +9150,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>489</v>
       </c>
@@ -9154,7 +9158,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>490</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>491</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>492</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>493</v>
       </c>
@@ -9186,7 +9190,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>494</v>
       </c>
@@ -9194,7 +9198,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>495</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>496</v>
       </c>
@@ -9210,7 +9214,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>497</v>
       </c>
@@ -9218,7 +9222,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>498</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>499</v>
       </c>
@@ -9234,7 +9238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>500</v>
       </c>
@@ -9242,7 +9246,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>501</v>
       </c>
@@ -9250,7 +9254,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>502</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>503</v>
       </c>
@@ -9266,7 +9270,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>504</v>
       </c>
@@ -9274,7 +9278,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>505</v>
       </c>
@@ -9282,7 +9286,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>506</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>507</v>
       </c>
@@ -9298,7 +9302,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>508</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>509</v>
       </c>
@@ -9314,7 +9318,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>510</v>
       </c>
@@ -9322,7 +9326,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>511</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>512</v>
       </c>
@@ -9338,7 +9342,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>513</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>514</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>515</v>
       </c>
@@ -9362,7 +9366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>516</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>517</v>
       </c>
@@ -9378,7 +9382,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>518</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>519</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>520</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>521</v>
       </c>
@@ -9410,7 +9414,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>522</v>
       </c>
@@ -9418,7 +9422,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>523</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>524</v>
       </c>
@@ -9434,7 +9438,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>525</v>
       </c>
@@ -9442,7 +9446,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>526</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>527</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>528</v>
       </c>
@@ -9466,7 +9470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>529</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>530</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>531</v>
       </c>
@@ -9490,7 +9494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>532</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>533</v>
       </c>
@@ -9506,7 +9510,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>534</v>
       </c>
@@ -9514,7 +9518,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>535</v>
       </c>
@@ -9522,7 +9526,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>536</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>537</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>538</v>
       </c>
@@ -9546,7 +9550,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>539</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>540</v>
       </c>
@@ -9562,7 +9566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>541</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>542</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>543</v>
       </c>
@@ -9586,7 +9590,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>544</v>
       </c>
@@ -9594,7 +9598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>545</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>546</v>
       </c>
@@ -9610,7 +9614,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>547</v>
       </c>
@@ -9618,7 +9622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>548</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>549</v>
       </c>
@@ -9634,7 +9638,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>550</v>
       </c>
@@ -9642,7 +9646,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>551</v>
       </c>
@@ -9650,7 +9654,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>552</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>553</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>554</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>555</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>556</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>557</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>558</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>559</v>
       </c>
@@ -9714,7 +9718,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>560</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>561</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>562</v>
       </c>
@@ -9738,7 +9742,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>563</v>
       </c>
@@ -9746,7 +9750,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>564</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>565</v>
       </c>
@@ -9762,7 +9766,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>566</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>567</v>
       </c>
@@ -9778,7 +9782,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>568</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>569</v>
       </c>
@@ -9794,7 +9798,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>570</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>571</v>
       </c>
@@ -9810,7 +9814,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>572</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>573</v>
       </c>
@@ -9826,7 +9830,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>574</v>
       </c>
@@ -9834,7 +9838,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>575</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>576</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>577</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>578</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>579</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>580</v>
       </c>
@@ -9882,7 +9886,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>581</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>582</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>583</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>584</v>
       </c>
@@ -9914,7 +9918,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>585</v>
       </c>
@@ -9922,7 +9926,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>586</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>587</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>588</v>
       </c>
@@ -9946,7 +9950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>589</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>590</v>
       </c>
@@ -9962,7 +9966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="3">
         <v>591</v>
       </c>
@@ -9970,7 +9974,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>592</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="3">
         <v>593</v>
       </c>
@@ -9986,7 +9990,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>594</v>
       </c>
@@ -9994,7 +9998,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>595</v>
       </c>
@@ -10002,7 +10006,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>596</v>
       </c>
@@ -10010,7 +10014,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>597</v>
       </c>
@@ -10018,7 +10022,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>598</v>
       </c>
@@ -10026,7 +10030,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>599</v>
       </c>
@@ -10034,7 +10038,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>600</v>
       </c>
@@ -10042,7 +10046,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="3">
         <v>601</v>
       </c>
@@ -10050,7 +10054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="3">
         <v>602</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="3">
         <v>603</v>
       </c>
@@ -10066,7 +10070,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="3">
         <v>604</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="3">
         <v>605</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="3">
         <v>606</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="3">
         <v>607</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="3">
         <v>608</v>
       </c>
@@ -10106,7 +10110,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="3">
         <v>609</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="3">
         <v>610</v>
       </c>
@@ -10122,7 +10126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="3">
         <v>611</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="3">
         <v>612</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="3">
         <v>613</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="3">
         <v>614</v>
       </c>
@@ -10154,7 +10158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="3">
         <v>615</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="3">
         <v>616</v>
       </c>
@@ -10170,7 +10174,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="3">
         <v>617</v>
       </c>
@@ -10178,7 +10182,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="3">
         <v>618</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="3">
         <v>619</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="3">
         <v>620</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="3">
         <v>621</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="3">
         <v>622</v>
       </c>
@@ -10218,7 +10222,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="3">
         <v>623</v>
       </c>
@@ -10226,7 +10230,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="3">
         <v>624</v>
       </c>
@@ -10234,7 +10238,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="3">
         <v>625</v>
       </c>
@@ -10242,7 +10246,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="3">
         <v>626</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="3">
         <v>627</v>
       </c>
@@ -10258,7 +10262,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
         <v>628</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="3">
         <v>629</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="3">
         <v>630</v>
       </c>
@@ -10282,7 +10286,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="3">
         <v>631</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="3">
         <v>632</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="3">
         <v>633</v>
       </c>
@@ -10306,7 +10310,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
         <v>634</v>
       </c>
@@ -10314,7 +10318,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="3">
         <v>635</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
         <v>636</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="3">
         <v>637</v>
       </c>
@@ -10338,7 +10342,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="3">
         <v>638</v>
       </c>
@@ -10346,7 +10350,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="3">
         <v>639</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
         <v>640</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="3">
         <v>641</v>
       </c>
@@ -10370,7 +10374,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
         <v>642</v>
       </c>
@@ -10378,7 +10382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="3">
         <v>643</v>
       </c>
@@ -10386,7 +10390,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
         <v>644</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="3">
         <v>645</v>
       </c>
@@ -10402,7 +10406,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
         <v>646</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="3">
         <v>647</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
         <v>648</v>
       </c>
@@ -10426,7 +10430,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="3">
         <v>649</v>
       </c>
@@ -10434,7 +10438,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="3">
         <v>650</v>
       </c>
@@ -10442,7 +10446,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="3">
         <v>651</v>
       </c>
@@ -10450,7 +10454,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>652</v>
       </c>
@@ -10458,7 +10462,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
         <v>653</v>
       </c>
@@ -10466,7 +10470,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
         <v>654</v>
       </c>
@@ -10474,7 +10478,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="3">
         <v>655</v>
       </c>
@@ -10482,7 +10486,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="3">
         <v>656</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="3">
         <v>657</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="3">
         <v>658</v>
       </c>
@@ -10506,7 +10510,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="3">
         <v>659</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="3">
         <v>660</v>
       </c>
@@ -10522,7 +10526,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="3">
         <v>661</v>
       </c>
@@ -10530,7 +10534,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="3">
         <v>662</v>
       </c>
@@ -10538,7 +10542,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="3">
         <v>663</v>
       </c>
@@ -10546,7 +10550,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="3">
         <v>664</v>
       </c>
@@ -10554,7 +10558,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
         <v>665</v>
       </c>
@@ -10562,7 +10566,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
         <v>666</v>
       </c>
@@ -10570,7 +10574,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="3">
         <v>667</v>
       </c>
@@ -10578,7 +10582,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
         <v>668</v>
       </c>
@@ -10586,7 +10590,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="3">
         <v>669</v>
       </c>
@@ -10594,7 +10598,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="3">
         <v>670</v>
       </c>
@@ -10602,7 +10606,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="3">
         <v>671</v>
       </c>
@@ -10610,7 +10614,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="3">
         <v>672</v>
       </c>
@@ -10618,7 +10622,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="3">
         <v>673</v>
       </c>
@@ -10626,7 +10630,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="3">
         <v>674</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="3">
         <v>675</v>
       </c>
@@ -10642,7 +10646,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="3">
         <v>676</v>
       </c>
@@ -10650,7 +10654,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="3">
         <v>677</v>
       </c>
@@ -10658,7 +10662,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="3">
         <v>678</v>
       </c>
@@ -10666,7 +10670,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="3">
         <v>679</v>
       </c>
@@ -10674,7 +10678,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="3">
         <v>680</v>
       </c>
@@ -10682,7 +10686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="3">
         <v>681</v>
       </c>
@@ -10690,7 +10694,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="3">
         <v>682</v>
       </c>
@@ -10698,7 +10702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="3">
         <v>683</v>
       </c>
@@ -10706,7 +10710,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="3">
         <v>684</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="3">
         <v>685</v>
       </c>
@@ -10722,7 +10726,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="3">
         <v>686</v>
       </c>
@@ -10730,7 +10734,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="3">
         <v>687</v>
       </c>
@@ -10738,7 +10742,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="3">
         <v>688</v>
       </c>
@@ -10746,7 +10750,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="3">
         <v>689</v>
       </c>
@@ -10754,7 +10758,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="3">
         <v>690</v>
       </c>
@@ -10762,7 +10766,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="3">
         <v>691</v>
       </c>
@@ -10770,7 +10774,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="3">
         <v>692</v>
       </c>
@@ -10778,7 +10782,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="3">
         <v>693</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="3">
         <v>694</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="3">
         <v>695</v>
       </c>
@@ -10802,7 +10806,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="3">
         <v>696</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="3">
         <v>697</v>
       </c>
@@ -10818,7 +10822,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="3">
         <v>698</v>
       </c>
@@ -10826,7 +10830,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="3">
         <v>699</v>
       </c>
@@ -10834,7 +10838,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="3">
         <v>700</v>
       </c>
@@ -10842,7 +10846,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="3">
         <v>701</v>
       </c>
@@ -10850,7 +10854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="3">
         <v>702</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="3">
         <v>703</v>
       </c>
@@ -10866,7 +10870,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="3">
         <v>704</v>
       </c>
@@ -10874,7 +10878,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="3">
         <v>705</v>
       </c>
@@ -10882,7 +10886,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="3">
         <v>706</v>
       </c>
@@ -10890,7 +10894,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="3">
         <v>707</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="3">
         <v>708</v>
       </c>
@@ -10906,7 +10910,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="3">
         <v>709</v>
       </c>
@@ -10914,7 +10918,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="3">
         <v>710</v>
       </c>
@@ -10922,7 +10926,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="3">
         <v>711</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="3">
         <v>712</v>
       </c>
@@ -10938,7 +10942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="3">
         <v>713</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="3">
         <v>714</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="3">
         <v>715</v>
       </c>
@@ -10962,7 +10966,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="3">
         <v>716</v>
       </c>
@@ -10970,7 +10974,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="3">
         <v>717</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="3">
         <v>718</v>
       </c>
@@ -10986,7 +10990,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="3">
         <v>719</v>
       </c>
@@ -10994,7 +10998,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="3">
         <v>720</v>
       </c>
@@ -11002,7 +11006,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="3">
         <v>721</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="3">
         <v>722</v>
       </c>
@@ -11018,7 +11022,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="3">
         <v>723</v>
       </c>
@@ -11026,7 +11030,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="3">
         <v>724</v>
       </c>
@@ -11034,7 +11038,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="3">
         <v>725</v>
       </c>
@@ -11042,7 +11046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="3">
         <v>726</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="3">
         <v>727</v>
       </c>
@@ -11058,7 +11062,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="3">
         <v>728</v>
       </c>
@@ -11066,7 +11070,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="3">
         <v>729</v>
       </c>
@@ -11074,7 +11078,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="3">
         <v>730</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="3">
         <v>731</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="3">
         <v>732</v>
       </c>
@@ -11098,7 +11102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="3">
         <v>733</v>
       </c>
@@ -11106,7 +11110,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="3">
         <v>734</v>
       </c>
@@ -11114,7 +11118,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="3">
         <v>735</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="3">
         <v>736</v>
       </c>
@@ -11130,7 +11134,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="3">
         <v>737</v>
       </c>
@@ -11138,7 +11142,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="3">
         <v>738</v>
       </c>
@@ -11146,7 +11150,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="3">
         <v>739</v>
       </c>
@@ -11154,7 +11158,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="3">
         <v>740</v>
       </c>
@@ -11162,7 +11166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="3">
         <v>741</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="3">
         <v>742</v>
       </c>
@@ -11178,7 +11182,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="3">
         <v>743</v>
       </c>
@@ -11186,7 +11190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="3">
         <v>744</v>
       </c>
@@ -11194,7 +11198,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="3">
         <v>745</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="3">
         <v>746</v>
       </c>
@@ -11210,7 +11214,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="3">
         <v>747</v>
       </c>
@@ -11218,7 +11222,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="3">
         <v>748</v>
       </c>
@@ -11226,7 +11230,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="3">
         <v>749</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="3">
         <v>750</v>
       </c>
@@ -11242,7 +11246,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="3">
         <v>751</v>
       </c>
@@ -11250,7 +11254,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="3">
         <v>752</v>
       </c>
@@ -11258,7 +11262,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="3">
         <v>753</v>
       </c>
@@ -11266,7 +11270,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="3">
         <v>754</v>
       </c>
@@ -11274,7 +11278,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="3">
         <v>755</v>
       </c>
@@ -11282,7 +11286,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="3">
         <v>756</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="3">
         <v>757</v>
       </c>
@@ -11298,7 +11302,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="3">
         <v>758</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="3">
         <v>759</v>
       </c>
@@ -11314,7 +11318,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="3">
         <v>760</v>
       </c>
@@ -11322,7 +11326,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="3">
         <v>761</v>
       </c>
@@ -11330,7 +11334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="3">
         <v>762</v>
       </c>
@@ -11338,7 +11342,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="3">
         <v>763</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="3">
         <v>764</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="3">
         <v>765</v>
       </c>
@@ -11362,7 +11366,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="3">
         <v>766</v>
       </c>
@@ -11370,7 +11374,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="3">
         <v>767</v>
       </c>
@@ -11378,7 +11382,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="3">
         <v>768</v>
       </c>
@@ -11386,7 +11390,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="3">
         <v>769</v>
       </c>
@@ -11394,7 +11398,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="3">
         <v>770</v>
       </c>
@@ -11402,7 +11406,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="3">
         <v>771</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="3">
         <v>772</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="3">
         <v>773</v>
       </c>
@@ -11426,7 +11430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="3">
         <v>774</v>
       </c>
@@ -11434,7 +11438,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="3">
         <v>775</v>
       </c>
@@ -11442,7 +11446,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="3">
         <v>776</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="3">
         <v>777</v>
       </c>
@@ -11458,7 +11462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="3">
         <v>778</v>
       </c>
@@ -11466,7 +11470,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="3">
         <v>779</v>
       </c>
@@ -11474,7 +11478,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="3">
         <v>780</v>
       </c>
@@ -11482,7 +11486,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="3">
         <v>781</v>
       </c>
@@ -11490,7 +11494,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="3">
         <v>782</v>
       </c>
@@ -11498,7 +11502,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="3">
         <v>783</v>
       </c>
@@ -11506,7 +11510,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="3">
         <v>784</v>
       </c>
@@ -11514,7 +11518,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="3">
         <v>785</v>
       </c>
@@ -11522,7 +11526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="3">
         <v>786</v>
       </c>
@@ -11530,7 +11534,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="3">
         <v>787</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="3">
         <v>788</v>
       </c>
@@ -11546,7 +11550,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="3">
         <v>789</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="3">
         <v>790</v>
       </c>
@@ -11562,7 +11566,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="3">
         <v>791</v>
       </c>
@@ -11570,7 +11574,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="3">
         <v>792</v>
       </c>
@@ -11578,7 +11582,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="3">
         <v>793</v>
       </c>
@@ -11586,7 +11590,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="3">
         <v>794</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="3">
         <v>795</v>
       </c>
@@ -11602,7 +11606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="3">
         <v>796</v>
       </c>
@@ -11610,7 +11614,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="3">
         <v>797</v>
       </c>
@@ -11618,7 +11622,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="3">
         <v>798</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="3">
         <v>799</v>
       </c>
@@ -11634,7 +11638,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="3">
         <v>800</v>
       </c>
@@ -11642,7 +11646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="3">
         <v>801</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="3">
         <v>802</v>
       </c>
@@ -11658,7 +11662,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="3">
         <v>803</v>
       </c>
@@ -11666,7 +11670,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="3">
         <v>804</v>
       </c>
@@ -11674,7 +11678,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="3">
         <v>805</v>
       </c>
@@ -11682,7 +11686,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="3">
         <v>806</v>
       </c>
@@ -11690,7 +11694,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="3">
         <v>807</v>
       </c>
@@ -11698,7 +11702,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="3">
         <v>808</v>
       </c>
@@ -11706,7 +11710,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="3">
         <v>809</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="3">
         <v>810</v>
       </c>
@@ -11722,7 +11726,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="3">
         <v>811</v>
       </c>
@@ -11730,7 +11734,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="3">
         <v>812</v>
       </c>
@@ -11738,7 +11742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="3">
         <v>813</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="3">
         <v>814</v>
       </c>
@@ -11754,7 +11758,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="3">
         <v>815</v>
       </c>
@@ -11762,7 +11766,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="3">
         <v>816</v>
       </c>
@@ -11770,7 +11774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="3">
         <v>817</v>
       </c>
@@ -11778,7 +11782,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="3">
         <v>818</v>
       </c>
@@ -11786,7 +11790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="3">
         <v>819</v>
       </c>
@@ -11794,7 +11798,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="3">
         <v>820</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="3">
         <v>821</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" s="3">
         <v>822</v>
       </c>
@@ -11818,7 +11822,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="3">
         <v>823</v>
       </c>
@@ -11826,7 +11830,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" s="3">
         <v>824</v>
       </c>
@@ -11834,7 +11838,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="3">
         <v>825</v>
       </c>
@@ -11842,7 +11846,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" s="3">
         <v>826</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="3">
         <v>827</v>
       </c>
@@ -11858,7 +11862,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" s="3">
         <v>828</v>
       </c>
@@ -11866,7 +11870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="3">
         <v>829</v>
       </c>
@@ -11874,7 +11878,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="3">
         <v>830</v>
       </c>
@@ -11882,7 +11886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="3">
         <v>831</v>
       </c>
@@ -11890,7 +11894,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="3">
         <v>832</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="3">
         <v>833</v>
       </c>
@@ -11906,7 +11910,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="3">
         <v>834</v>
       </c>
@@ -11914,7 +11918,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="3">
         <v>835</v>
       </c>
@@ -11922,7 +11926,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="3">
         <v>836</v>
       </c>
@@ -11930,7 +11934,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="3">
         <v>837</v>
       </c>
@@ -11938,7 +11942,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="3">
         <v>838</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="3">
         <v>839</v>
       </c>
@@ -11954,7 +11958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="3">
         <v>840</v>
       </c>
@@ -11962,7 +11966,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="3">
         <v>841</v>
       </c>
@@ -11970,7 +11974,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="3">
         <v>842</v>
       </c>
@@ -11978,7 +11982,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="3">
         <v>843</v>
       </c>
@@ -11986,7 +11990,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="3">
         <v>844</v>
       </c>
@@ -11994,7 +11998,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="3">
         <v>845</v>
       </c>
@@ -12002,7 +12006,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="3">
         <v>846</v>
       </c>
@@ -12010,7 +12014,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="3">
         <v>847</v>
       </c>
@@ -12018,7 +12022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="3">
         <v>848</v>
       </c>
@@ -12026,7 +12030,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="3">
         <v>849</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" s="3">
         <v>850</v>
       </c>
@@ -12042,7 +12046,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="3">
         <v>851</v>
       </c>
@@ -12050,7 +12054,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" s="3">
         <v>852</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="3">
         <v>853</v>
       </c>
@@ -12066,7 +12070,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" s="3">
         <v>854</v>
       </c>
@@ -12074,7 +12078,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="3">
         <v>855</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="3">
         <v>856</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="3">
         <v>857</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="3">
         <v>858</v>
       </c>
@@ -12106,7 +12110,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="3">
         <v>859</v>
       </c>
@@ -12114,7 +12118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="3">
         <v>860</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="3">
         <v>861</v>
       </c>
@@ -12130,7 +12134,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="3">
         <v>862</v>
       </c>
@@ -12138,7 +12142,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="3">
         <v>863</v>
       </c>
@@ -12146,7 +12150,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="3">
         <v>864</v>
       </c>
@@ -12154,7 +12158,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="3">
         <v>865</v>
       </c>
@@ -12162,7 +12166,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="3">
         <v>866</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="3">
         <v>867</v>
       </c>
@@ -12178,7 +12182,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="3">
         <v>868</v>
       </c>
@@ -12186,7 +12190,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="3">
         <v>869</v>
       </c>
@@ -12194,7 +12198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="3">
         <v>870</v>
       </c>
@@ -12202,7 +12206,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="3">
         <v>871</v>
       </c>
@@ -12210,7 +12214,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="3">
         <v>872</v>
       </c>
@@ -12218,7 +12222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="3">
         <v>873</v>
       </c>
@@ -12226,7 +12230,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="3">
         <v>874</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="3">
         <v>875</v>
       </c>
@@ -12242,7 +12246,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="3">
         <v>876</v>
       </c>
@@ -12250,7 +12254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="3">
         <v>877</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="3">
         <v>878</v>
       </c>
@@ -12266,7 +12270,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="3">
         <v>879</v>
       </c>
@@ -12274,7 +12278,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="3">
         <v>880</v>
       </c>
@@ -12282,7 +12286,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" s="3">
         <v>881</v>
       </c>
@@ -12290,7 +12294,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" s="3">
         <v>882</v>
       </c>
@@ -12298,7 +12302,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" s="3">
         <v>883</v>
       </c>
@@ -12306,7 +12310,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" s="3">
         <v>884</v>
       </c>
@@ -12314,7 +12318,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" s="3">
         <v>885</v>
       </c>
@@ -12322,7 +12326,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" s="3">
         <v>886</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" s="3">
         <v>887</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" s="3">
         <v>888</v>
       </c>
@@ -12346,7 +12350,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" s="3">
         <v>889</v>
       </c>
@@ -12354,7 +12358,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" s="3">
         <v>890</v>
       </c>
@@ -12362,7 +12366,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" s="3">
         <v>891</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" s="3">
         <v>892</v>
       </c>
@@ -12378,7 +12382,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" s="3">
         <v>893</v>
       </c>
@@ -12386,7 +12390,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="3">
         <v>894</v>
       </c>
@@ -12394,7 +12398,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" s="3">
         <v>895</v>
       </c>
@@ -12402,7 +12406,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="3">
         <v>896</v>
       </c>
@@ -12410,7 +12414,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" s="3">
         <v>897</v>
       </c>
@@ -12418,7 +12422,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" s="3">
         <v>898</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="3">
         <v>899</v>
       </c>
@@ -12434,7 +12438,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="3">
         <v>900</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" s="3">
         <v>901</v>
       </c>
@@ -12450,7 +12454,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="3">
         <v>902</v>
       </c>
@@ -12458,7 +12462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" s="3">
         <v>903</v>
       </c>
@@ -12466,7 +12470,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" s="3">
         <v>904</v>
       </c>
@@ -12474,7 +12478,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="3">
         <v>905</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="3">
         <v>906</v>
       </c>
@@ -12490,7 +12494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="3">
         <v>907</v>
       </c>
@@ -12498,7 +12502,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="3">
         <v>908</v>
       </c>
@@ -12506,7 +12510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" s="3">
         <v>909</v>
       </c>
@@ -12514,7 +12518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="3">
         <v>910</v>
       </c>
@@ -12522,7 +12526,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="3">
         <v>911</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="3">
         <v>912</v>
       </c>
@@ -12538,7 +12542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" s="3">
         <v>913</v>
       </c>
@@ -12546,7 +12550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="3">
         <v>914</v>
       </c>
@@ -12554,7 +12558,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" s="3">
         <v>915</v>
       </c>
@@ -12562,7 +12566,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" s="3">
         <v>916</v>
       </c>
@@ -12570,7 +12574,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" s="3">
         <v>917</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" s="3">
         <v>918</v>
       </c>
@@ -12586,7 +12590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" s="3">
         <v>919</v>
       </c>
@@ -12594,7 +12598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" s="3">
         <v>920</v>
       </c>
@@ -12602,7 +12606,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" s="3">
         <v>921</v>
       </c>
@@ -12610,7 +12614,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" s="3">
         <v>922</v>
       </c>
@@ -12618,7 +12622,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" s="3">
         <v>923</v>
       </c>
@@ -12626,7 +12630,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="3">
         <v>924</v>
       </c>
@@ -12634,7 +12638,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="3">
         <v>925</v>
       </c>
@@ -12642,7 +12646,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="3">
         <v>926</v>
       </c>
@@ -12650,7 +12654,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="3">
         <v>927</v>
       </c>
@@ -12658,7 +12662,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="3">
         <v>928</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" s="3">
         <v>929</v>
       </c>
@@ -12674,7 +12678,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" s="3">
         <v>930</v>
       </c>
@@ -12682,7 +12686,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" s="3">
         <v>931</v>
       </c>
@@ -12690,7 +12694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" s="3">
         <v>932</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" s="3">
         <v>933</v>
       </c>
@@ -12706,7 +12710,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" s="3">
         <v>934</v>
       </c>
@@ -12714,7 +12718,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" s="3">
         <v>935</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" s="3">
         <v>936</v>
       </c>
@@ -12730,7 +12734,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" s="3">
         <v>937</v>
       </c>
@@ -12738,7 +12742,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" s="3">
         <v>938</v>
       </c>
@@ -12746,7 +12750,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" s="3">
         <v>939</v>
       </c>
@@ -12754,7 +12758,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" s="3">
         <v>940</v>
       </c>
@@ -12762,7 +12766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" s="3">
         <v>941</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" s="3">
         <v>942</v>
       </c>
@@ -12778,7 +12782,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" s="3">
         <v>943</v>
       </c>
@@ -12786,7 +12790,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="3">
         <v>944</v>
       </c>
@@ -12794,7 +12798,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" s="3">
         <v>945</v>
       </c>
@@ -12802,7 +12806,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" s="3">
         <v>946</v>
       </c>
@@ -12810,7 +12814,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" s="3">
         <v>947</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" s="3">
         <v>948</v>
       </c>
@@ -12826,7 +12830,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" s="3">
         <v>949</v>
       </c>
@@ -12834,7 +12838,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" s="3">
         <v>950</v>
       </c>
@@ -12842,7 +12846,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" s="3">
         <v>951</v>
       </c>
@@ -12850,7 +12854,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" s="3">
         <v>952</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" s="3">
         <v>953</v>
       </c>
@@ -12866,7 +12870,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="3">
         <v>954</v>
       </c>
@@ -12874,7 +12878,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="3">
         <v>955</v>
       </c>
@@ -12882,7 +12886,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="3">
         <v>956</v>
       </c>
@@ -12890,7 +12894,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="3">
         <v>957</v>
       </c>
@@ -12898,7 +12902,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="3">
         <v>958</v>
       </c>
@@ -12906,7 +12910,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="3">
         <v>959</v>
       </c>
@@ -12914,7 +12918,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="3">
         <v>960</v>
       </c>
@@ -12922,7 +12926,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="3">
         <v>961</v>
       </c>
@@ -12930,7 +12934,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="3">
         <v>962</v>
       </c>
@@ -12938,7 +12942,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="3">
         <v>963</v>
       </c>
@@ -12946,7 +12950,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="3">
         <v>964</v>
       </c>
@@ -12954,7 +12958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="3">
         <v>965</v>
       </c>
@@ -12962,7 +12966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="3">
         <v>966</v>
       </c>
@@ -12970,7 +12974,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" s="3">
         <v>967</v>
       </c>
@@ -12978,7 +12982,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="3">
         <v>968</v>
       </c>
@@ -12986,7 +12990,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="3">
         <v>969</v>
       </c>
@@ -12994,7 +12998,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="3">
         <v>970</v>
       </c>
@@ -13002,7 +13006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="3">
         <v>971</v>
       </c>
@@ -13010,7 +13014,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="3">
         <v>972</v>
       </c>
@@ -13018,7 +13022,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="3">
         <v>973</v>
       </c>
@@ -13026,7 +13030,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="3">
         <v>974</v>
       </c>
@@ -13034,7 +13038,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="3">
         <v>975</v>
       </c>
@@ -13042,7 +13046,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="3">
         <v>976</v>
       </c>
@@ -13050,7 +13054,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="3">
         <v>977</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="3">
         <v>978</v>
       </c>
@@ -13066,7 +13070,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="3">
         <v>979</v>
       </c>
@@ -13074,7 +13078,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="3">
         <v>980</v>
       </c>
@@ -13082,7 +13086,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="3">
         <v>981</v>
       </c>
@@ -13090,7 +13094,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="3">
         <v>982</v>
       </c>
@@ -13098,7 +13102,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="3">
         <v>983</v>
       </c>
@@ -13106,7 +13110,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="3">
         <v>984</v>
       </c>
@@ -13114,7 +13118,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="3">
         <v>985</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="3">
         <v>986</v>
       </c>
@@ -13130,7 +13134,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="3">
         <v>987</v>
       </c>
@@ -13138,7 +13142,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="3">
         <v>988</v>
       </c>
@@ -13146,7 +13150,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="3">
         <v>989</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="3">
         <v>990</v>
       </c>
@@ -13162,7 +13166,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="3">
         <v>991</v>
       </c>
@@ -13170,7 +13174,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="3">
         <v>992</v>
       </c>
@@ -13178,7 +13182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="3">
         <v>993</v>
       </c>
@@ -13186,7 +13190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="3">
         <v>994</v>
       </c>
@@ -13194,7 +13198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="3">
         <v>995</v>
       </c>
@@ -13202,7 +13206,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="3">
         <v>996</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="3">
         <v>997</v>
       </c>
@@ -13218,7 +13222,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="3">
         <v>998</v>
       </c>
@@ -13226,7 +13230,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="3">
         <v>999</v>
       </c>
@@ -13234,7 +13238,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="3">
         <v>1000</v>
       </c>
